--- a/regionseng/2/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/2/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -89,15 +89,16 @@
     <t>FDI in Region of Samegrelo-Zemo Svaneti</t>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -280,7 +281,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -323,12 +324,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -338,6 +333,12 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,6 +347,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -657,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -692,18 +699,18 @@
       </c>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16">
       <c r="A4" s="7"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -711,7 +718,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="13.15" customHeight="1">
+    <row r="5" spans="1:16">
       <c r="A5" s="16">
         <v>2009</v>
       </c>
@@ -731,7 +738,7 @@
         <v>100357.177</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13.15" customHeight="1">
+    <row r="6" spans="1:16">
       <c r="A6" s="16">
         <v>2010</v>
       </c>
@@ -751,7 +758,7 @@
         <v>25339.742099999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13.15" customHeight="1">
+    <row r="7" spans="1:16">
       <c r="A7" s="16">
         <v>2011</v>
       </c>
@@ -771,7 +778,7 @@
         <v>70148.328717900018</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.15" customHeight="1">
+    <row r="8" spans="1:16">
       <c r="A8" s="16">
         <v>2012</v>
       </c>
@@ -791,7 +798,7 @@
         <v>66238.184973699987</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="13.15" customHeight="1">
+    <row r="9" spans="1:16">
       <c r="A9" s="16">
         <v>2013</v>
       </c>
@@ -811,7 +818,7 @@
         <v>66302.005199999985</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13.15" customHeight="1">
+    <row r="10" spans="1:16">
       <c r="A10" s="16">
         <v>2014</v>
       </c>
@@ -831,7 +838,7 @@
         <v>93430.670199999979</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.15" customHeight="1">
+    <row r="11" spans="1:16">
       <c r="A11" s="16">
         <v>2015</v>
       </c>
@@ -851,64 +858,64 @@
         <v>50730.133199999982</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="13.15" customHeight="1">
+    <row r="12" spans="1:16">
       <c r="A12" s="16">
         <v>2016</v>
       </c>
-      <c r="B12" s="23">
-        <v>61524.419399999912</v>
-      </c>
-      <c r="C12" s="23">
-        <v>-6026.0952000000007</v>
-      </c>
-      <c r="D12" s="23">
-        <v>14450.295100000003</v>
-      </c>
-      <c r="E12" s="23">
-        <v>-34861.819699999978</v>
-      </c>
-      <c r="F12" s="24">
-        <v>35086.799599999926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="13.15" customHeight="1">
+      <c r="B12" s="21">
+        <v>61524.419499999451</v>
+      </c>
+      <c r="C12" s="21">
+        <v>-6026.0952000000016</v>
+      </c>
+      <c r="D12" s="21">
+        <v>14450.295099999998</v>
+      </c>
+      <c r="E12" s="21">
+        <v>-34861.819799999997</v>
+      </c>
+      <c r="F12" s="22">
+        <v>35086.799599999445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="16">
         <v>2017</v>
       </c>
       <c r="B13" s="1">
-        <v>5208.1838999999991</v>
+        <v>5208.1835999999994</v>
       </c>
       <c r="C13" s="1">
-        <v>-8169.2106000000003</v>
+        <v>-8169.2106999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>32823.347500000018</v>
+        <v>32823.347500000003</v>
       </c>
       <c r="E13" s="1">
-        <v>25319.617900000005</v>
+        <v>25319.617799999989</v>
       </c>
       <c r="F13" s="17">
-        <v>55181.938700000021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="13.15" customHeight="1">
+        <v>55181.93819999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="16">
         <v>2018</v>
       </c>
       <c r="B14" s="1">
-        <v>5479.7717999999995</v>
+        <v>5479.7716999999984</v>
       </c>
       <c r="C14" s="1">
-        <v>-19490.2755</v>
+        <v>-19490.275300000005</v>
       </c>
       <c r="D14" s="1">
-        <v>36344.982900000017</v>
+        <v>36344.983</v>
       </c>
       <c r="E14" s="1">
-        <v>-31231.834100000022</v>
+        <v>-31231.834100000026</v>
       </c>
       <c r="F14" s="17">
-        <v>-8897.3549000000057</v>
+        <v>-8897.3547000000326</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -916,19 +923,19 @@
         <v>2019</v>
       </c>
       <c r="B15" s="1">
-        <v>12222.145199999997</v>
+        <v>12222.1</v>
       </c>
       <c r="C15" s="1">
-        <v>7510.2607000000016</v>
+        <v>7510.3</v>
       </c>
       <c r="D15" s="1">
-        <v>30057.158400000004</v>
+        <v>30057.200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>-3926.8239999999987</v>
+        <v>-3926.8</v>
       </c>
       <c r="F15" s="17">
-        <v>45862.740299999998</v>
+        <v>45862.7</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -936,19 +943,19 @@
         <v>2020</v>
       </c>
       <c r="B16" s="1">
-        <v>7488.1395999999995</v>
+        <v>7488.1</v>
       </c>
       <c r="C16" s="1">
-        <v>16382.926600000006</v>
+        <v>16382.9</v>
       </c>
       <c r="D16" s="1">
-        <v>215.42160000001147</v>
+        <v>215.4</v>
       </c>
       <c r="E16" s="1">
-        <v>7462.8151999999991</v>
+        <v>7462.8</v>
       </c>
       <c r="F16" s="17">
-        <v>31549.303000000014</v>
+        <v>31549.3</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -956,19 +963,19 @@
         <v>2021</v>
       </c>
       <c r="B17" s="1">
-        <v>482.82020000000017</v>
+        <v>482.8</v>
       </c>
       <c r="C17" s="1">
-        <v>-36391.556900000003</v>
+        <v>-36391.599999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>10365.908700000002</v>
+        <v>10365.9</v>
       </c>
       <c r="E17" s="1">
-        <v>21087.730700000007</v>
+        <v>21237.8</v>
       </c>
       <c r="F17" s="17">
-        <v>-4455.097299999994</v>
+        <v>-4305.1000000000004</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -982,19 +989,23 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="16" t="s">
-        <v>14</v>
+      <c r="A18" s="16">
+        <v>2022</v>
       </c>
       <c r="B18" s="1">
-        <v>15186.142700000002</v>
+        <v>13244.3</v>
       </c>
       <c r="C18" s="1">
-        <v>9648.8523999999961</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+        <v>8001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13988.1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-2231.5</v>
+      </c>
       <c r="F18" s="17">
-        <v>24834.9951</v>
+        <v>33001.800000000003</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1008,14 +1019,24 @@
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="1">
+        <v>30225.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8788.4</v>
+      </c>
+      <c r="D19" s="23">
+        <v>28836.6</v>
+      </c>
+      <c r="E19" s="24">
+        <v>-10355</v>
+      </c>
+      <c r="F19" s="17">
+        <v>57495.4</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1028,66 +1049,70 @@
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="A20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18752.3</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="17">
+        <v>18752.3</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1107,7 +1132,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1127,7 +1152,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1146,7 +1171,9 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="9"/>
+      <c r="A26" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1163,31 +1190,69 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" ht="42.6" customHeight="1">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" ht="42.6" customHeight="1">
+      <c r="A29" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/2/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/2/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -339,6 +339,12 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,12 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -667,7 +667,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -680,14 +680,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:16" ht="15">
       <c r="A2" s="5"/>
@@ -701,16 +701,16 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="7"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -1055,11 +1055,13 @@
       <c r="B20" s="1">
         <v>18752.3</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>864.83710000000417</v>
+      </c>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="17">
-        <v>18752.3</v>
+        <v>19617.137100000004</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1073,12 +1075,12 @@
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1229,14 +1231,14 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" ht="42.6" customHeight="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
